--- a/conf-core/src/main/webapp/resources/import-templates/ccdb_enumerations.xlsx
+++ b/conf-core/src/main/webapp/resources/import-templates/ccdb_enumerations.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Enumerations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -57,9 +52,6 @@
     <t>European Spallation Source (ESS)</t>
   </si>
   <si>
-    <t>2015/MAY/06</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -69,16 +61,25 @@
     <t>Total names</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
-    <t>Template file to import enumerations in the CCDB</t>
-  </si>
-  <si>
     <t>DEFINITION</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
+  </si>
+  <si>
+    <t>Template file to import/export enumerations to/from the CCDB</t>
+  </si>
+  <si>
+    <t>2016/JAN/14</t>
   </si>
 </sst>
 </file>
@@ -94,17 +95,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,21 +149,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -170,9 +174,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -221,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -480,13 +481,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1">
-        <f xml:space="preserve"> SUMPRODUCT((B9:B65536 &lt;&gt; "") / COUNTIF(B9:B65536, B9:B65536 &amp; ""))</f>
+        <f xml:space="preserve"> SUMPRODUCT((B10:B65536 &lt;&gt; "") / COUNTIF(B10:B65536, B10:B65536 &amp; ""))</f>
         <v>0</v>
       </c>
     </row>
@@ -495,13 +496,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2">
-        <f xml:space="preserve"> COUNTIF(A8:A65536, "CREATE")</f>
+        <f xml:space="preserve"> COUNTIF(A10:A65536, "CREATE")</f>
         <v>0</v>
       </c>
     </row>
@@ -510,13 +511,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3">
-        <f xml:space="preserve"> COUNTIF(A8:A65536, "UPDATE")</f>
+        <f xml:space="preserve"> COUNTIF(A10:A65536, "UPDATE")</f>
         <v>0</v>
       </c>
     </row>
@@ -531,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <f xml:space="preserve"> COUNTIF(A8:A65536, "DELETE")</f>
+        <f xml:space="preserve"> COUNTIF(A10:A65536, "DELETE")</f>
         <v>0</v>
       </c>
     </row>
@@ -548,49 +549,55 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="B8 C8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="D8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A1048576">
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="A9:D9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
       <formula1>"CREATE,UPDATE,DELETE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="A8"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>